--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/45.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/45.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1124791647996377</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.486857649691725</v>
+        <v>-1.548344972956051</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0946715444814029</v>
+        <v>0.1490654902751482</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1042253419619845</v>
+        <v>0.1051969456000441</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1140508262694736</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.288174769399692</v>
+        <v>-1.42734159005465</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03459801734577968</v>
+        <v>0.1282031535269809</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08783433369505718</v>
+        <v>0.08698837371640762</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1265968529773353</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.197075797279249</v>
+        <v>-1.420622703879593</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01152471814440065</v>
+        <v>0.1015697473354234</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1348226226317276</v>
+        <v>0.1250279064838305</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1518579778155919</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.243338890531265</v>
+        <v>-1.483646417328647</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06071299096210128</v>
+        <v>0.1272352094129817</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09499968180549336</v>
+        <v>0.09716124068388847</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1849461174765079</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.250182810445055</v>
+        <v>-1.491257007533109</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1298822651500683</v>
+        <v>0.2219186853506735</v>
       </c>
       <c r="G6" t="n">
-        <v>0.121400098298533</v>
+        <v>0.1119487674916451</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2169203588642564</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.171338974482511</v>
+        <v>-1.420838615799162</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2096165853006652</v>
+        <v>0.2885909442880339</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05787503005319257</v>
+        <v>0.04632313243558435</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2409951416560027</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.9256238909650811</v>
+        <v>-1.156011667875832</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2988681076912387</v>
+        <v>0.3396748505690675</v>
       </c>
       <c r="G8" t="n">
-        <v>0.006272691196923126</v>
+        <v>0.003791533883912026</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2536274499048423</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.3807475948681431</v>
+        <v>-0.5950938480597433</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2807772504982146</v>
+        <v>0.2755959743492398</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.052024137007333</v>
+        <v>-0.02051136540179109</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2521160654728282</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2872918132465606</v>
+        <v>0.04221958612242342</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3735663128139269</v>
+        <v>0.2704049394694371</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.08102830486941015</v>
+        <v>-0.05175211238550337</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2330883670470146</v>
       </c>
       <c r="E11" t="n">
-        <v>1.136222715512557</v>
+        <v>0.8586057309978199</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1787033657203666</v>
+        <v>0.07523947172020978</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.001295814480843525</v>
+        <v>0.002761377860884556</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1897466623797376</v>
       </c>
       <c r="E12" t="n">
-        <v>2.143819602469146</v>
+        <v>1.71131326209424</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1854723413971011</v>
+        <v>-0.2990810460136084</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1410279555969623</v>
+        <v>0.1232048535810305</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1161626865507367</v>
       </c>
       <c r="E13" t="n">
-        <v>3.089815110994858</v>
+        <v>2.523145129276359</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5155162775230707</v>
+        <v>-0.6458984106708263</v>
       </c>
       <c r="G13" t="n">
-        <v>0.261876418646469</v>
+        <v>0.2413068438231407</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.008028962139888948</v>
       </c>
       <c r="E14" t="n">
-        <v>3.978611038613785</v>
+        <v>3.276382526963968</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.09170102179884</v>
+        <v>-1.185409234574412</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4652136036227668</v>
+        <v>0.414657888647797</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1312833989142278</v>
       </c>
       <c r="E15" t="n">
-        <v>4.957165332705662</v>
+        <v>4.083507636283622</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.72753966778463</v>
+        <v>-1.774497460687463</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7083188365643914</v>
+        <v>0.5745345658817352</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2970847589798181</v>
       </c>
       <c r="E16" t="n">
-        <v>5.802076247791211</v>
+        <v>4.771695773954698</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.32168657599063</v>
+        <v>-2.304108052166074</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8989727210677134</v>
+        <v>0.7580743356114678</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4821018975361863</v>
       </c>
       <c r="E17" t="n">
-        <v>6.538194391923857</v>
+        <v>5.40840050730147</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.831051460525265</v>
+        <v>-2.829729762418753</v>
       </c>
       <c r="G17" t="n">
-        <v>1.162094330778856</v>
+        <v>0.9838090276793078</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.6799968635128869</v>
       </c>
       <c r="E18" t="n">
-        <v>7.035234609343444</v>
+        <v>5.821081376078681</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.37273634668112</v>
+        <v>-3.354839139302963</v>
       </c>
       <c r="G18" t="n">
-        <v>1.397744503288589</v>
+        <v>1.201490937052043</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8789891677868167</v>
       </c>
       <c r="E19" t="n">
-        <v>7.451682348220251</v>
+        <v>6.182115381790219</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.828678584099731</v>
+        <v>-3.822055455470924</v>
       </c>
       <c r="G19" t="n">
-        <v>1.618906620042849</v>
+        <v>1.426447980257029</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.069350810959993</v>
       </c>
       <c r="E20" t="n">
-        <v>7.810122971214256</v>
+        <v>6.551954202391292</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.258720539980237</v>
+        <v>-4.29794911310698</v>
       </c>
       <c r="G20" t="n">
-        <v>1.762011088586892</v>
+        <v>1.60210330539844</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.245803941386901</v>
       </c>
       <c r="E21" t="n">
-        <v>8.074044186932616</v>
+        <v>6.78509028187147</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.62862675681609</v>
+        <v>-4.608632032230598</v>
       </c>
       <c r="G21" t="n">
-        <v>1.935183426653261</v>
+        <v>1.764419055418694</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.404553441191796</v>
       </c>
       <c r="E22" t="n">
-        <v>8.211040909819705</v>
+        <v>6.926289358221353</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.886410340764335</v>
+        <v>-4.863978068194218</v>
       </c>
       <c r="G22" t="n">
-        <v>2.094344057012697</v>
+        <v>1.945699678961751</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.543861107169843</v>
       </c>
       <c r="E23" t="n">
-        <v>8.262850011785391</v>
+        <v>7.017805516084691</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.123575251274771</v>
+        <v>-5.089737157089127</v>
       </c>
       <c r="G23" t="n">
-        <v>2.217694414678224</v>
+        <v>2.061641940087497</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.660011293128759</v>
       </c>
       <c r="E24" t="n">
-        <v>8.244491399415274</v>
+        <v>7.094204180054153</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.219936314033858</v>
+        <v>-5.19551813974025</v>
       </c>
       <c r="G24" t="n">
-        <v>2.370225817202086</v>
+        <v>2.16760284933826</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.750806375954009</v>
       </c>
       <c r="E25" t="n">
-        <v>8.227447776024226</v>
+        <v>7.109843766047327</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.262351417736272</v>
+        <v>-5.231602876738696</v>
       </c>
       <c r="G25" t="n">
-        <v>2.391021672596488</v>
+        <v>2.222793351535838</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.812187970186616</v>
       </c>
       <c r="E26" t="n">
-        <v>8.136364661841379</v>
+        <v>7.109396084270594</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.263914644430777</v>
+        <v>-5.234500609873925</v>
       </c>
       <c r="G26" t="n">
-        <v>2.425727378944806</v>
+        <v>2.245255510219116</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.842790616662768</v>
       </c>
       <c r="E27" t="n">
-        <v>7.917393380157998</v>
+        <v>6.966922273706309</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.263484040432993</v>
+        <v>-5.224851359807433</v>
       </c>
       <c r="G27" t="n">
-        <v>2.432724388948459</v>
+        <v>2.250625251857206</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.840246601757401</v>
       </c>
       <c r="E28" t="n">
-        <v>7.707291564955887</v>
+        <v>6.841995881012064</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.249451595423051</v>
+        <v>-5.16906344030698</v>
       </c>
       <c r="G28" t="n">
-        <v>2.354755789157048</v>
+        <v>2.19967857772844</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.804492516638958</v>
       </c>
       <c r="E29" t="n">
-        <v>7.427651473556377</v>
+        <v>6.682252776406334</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.056332716504651</v>
+        <v>-5.006906879583357</v>
       </c>
       <c r="G29" t="n">
-        <v>2.252923432967192</v>
+        <v>2.102964065937178</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.737229094405599</v>
       </c>
       <c r="E30" t="n">
-        <v>7.130879930188367</v>
+        <v>6.484942217636983</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.975212961536821</v>
+        <v>-4.867598557331394</v>
       </c>
       <c r="G30" t="n">
-        <v>2.213267610406387</v>
+        <v>2.059703612176791</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.642586138974258</v>
       </c>
       <c r="E31" t="n">
-        <v>6.870298640095881</v>
+        <v>6.281222612396364</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.940674068493593</v>
+        <v>-4.775153490277368</v>
       </c>
       <c r="G31" t="n">
-        <v>2.152343853847377</v>
+        <v>1.967314047904349</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.527596669039409</v>
       </c>
       <c r="E32" t="n">
-        <v>6.517897451643035</v>
+        <v>6.02707598544357</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.703353933170924</v>
+        <v>-4.552692242481634</v>
       </c>
       <c r="G32" t="n">
-        <v>2.052419329534389</v>
+        <v>1.880614433625289</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.400749203121529</v>
       </c>
       <c r="E33" t="n">
-        <v>6.1684312014867</v>
+        <v>5.724626080575036</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.550192482587982</v>
+        <v>-4.41464828579257</v>
       </c>
       <c r="G33" t="n">
-        <v>1.969706766719232</v>
+        <v>1.791432442191865</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.271241251374</v>
       </c>
       <c r="E34" t="n">
-        <v>5.856223785631551</v>
+        <v>5.477883890637963</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.349889348018168</v>
+        <v>-4.199926016503754</v>
       </c>
       <c r="G34" t="n">
-        <v>1.778385628995547</v>
+        <v>1.633546546046832</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.145260065374562</v>
       </c>
       <c r="E35" t="n">
-        <v>5.479494081224577</v>
+        <v>5.195052694257707</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.285125225918014</v>
+        <v>-4.102329864374252</v>
       </c>
       <c r="G35" t="n">
-        <v>1.725118206691756</v>
+        <v>1.57602736670543</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.029881321314594</v>
       </c>
       <c r="E36" t="n">
-        <v>5.07220491122982</v>
+        <v>4.84622076160519</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.181033418581145</v>
+        <v>-3.956187990860003</v>
       </c>
       <c r="G36" t="n">
-        <v>1.656639972630544</v>
+        <v>1.524706201281141</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9258397451633602</v>
       </c>
       <c r="E37" t="n">
-        <v>4.715202481191586</v>
+        <v>4.503882044477333</v>
       </c>
       <c r="F37" t="n">
-        <v>-4.016422537054289</v>
+        <v>-3.812585217123057</v>
       </c>
       <c r="G37" t="n">
-        <v>1.53568416354193</v>
+        <v>1.420461608814747</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8348645587596212</v>
       </c>
       <c r="E38" t="n">
-        <v>4.352067908669327</v>
+        <v>4.19152702781841</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.853787188599418</v>
+        <v>-3.695377065632721</v>
       </c>
       <c r="G38" t="n">
-        <v>1.414589902459694</v>
+        <v>1.308144716191592</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.75448393749394</v>
       </c>
       <c r="E39" t="n">
-        <v>4.076489888976959</v>
+        <v>3.914823094556766</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.73084974723205</v>
+        <v>-3.60886896644616</v>
       </c>
       <c r="G39" t="n">
-        <v>1.337835654735688</v>
+        <v>1.225718206173829</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6839906603890942</v>
       </c>
       <c r="E40" t="n">
-        <v>3.647383856374923</v>
+        <v>3.559451592408156</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.649208205125261</v>
+        <v>-3.52729726025686</v>
       </c>
       <c r="G40" t="n">
-        <v>1.236759600185</v>
+        <v>1.12230554551052</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6221873755789535</v>
       </c>
       <c r="E41" t="n">
-        <v>3.371515514440424</v>
+        <v>3.326663167713725</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.51623512894268</v>
+        <v>-3.40555282373321</v>
       </c>
       <c r="G41" t="n">
-        <v>1.164863980571969</v>
+        <v>1.054433572601996</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5681230842637045</v>
       </c>
       <c r="E42" t="n">
-        <v>3.004071242416263</v>
+        <v>3.01132075958009</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.383733216482887</v>
+        <v>-3.307550464432994</v>
       </c>
       <c r="G42" t="n">
-        <v>1.104477564129174</v>
+        <v>1.003794298494311</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5203799053541911</v>
       </c>
       <c r="E43" t="n">
-        <v>2.612508267150777</v>
+        <v>2.679094527272716</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.261687479144924</v>
+        <v>-3.198507321042284</v>
       </c>
       <c r="G43" t="n">
-        <v>1.015298012378457</v>
+        <v>0.920621245568209</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4768233511951571</v>
       </c>
       <c r="E44" t="n">
-        <v>2.318460629525124</v>
+        <v>2.432259629392777</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.249806834282548</v>
+        <v>-3.162493944763018</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9975834762429859</v>
+        <v>0.9017002863341307</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.436092433574624</v>
       </c>
       <c r="E45" t="n">
-        <v>2.004723532612691</v>
+        <v>2.160370409953381</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.157584998196212</v>
+        <v>-3.076818997220895</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8570357951758705</v>
+        <v>0.816119266576227</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.394856868160217</v>
       </c>
       <c r="E46" t="n">
-        <v>1.893271507509165</v>
+        <v>2.024889949868689</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.078216935412002</v>
+        <v>-2.983215995762063</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7997294781506532</v>
+        <v>0.7744909605468185</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3520012193880772</v>
       </c>
       <c r="E47" t="n">
-        <v>1.573987182041708</v>
+        <v>1.778023946034236</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.981781157370013</v>
+        <v>-2.906750545478497</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6725463789524412</v>
+        <v>0.6790524028113126</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.305555549021202</v>
       </c>
       <c r="E48" t="n">
-        <v>1.403647925518833</v>
+        <v>1.627740101204191</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.871767325222259</v>
+        <v>-2.814942845531673</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6171100787221334</v>
+        <v>0.6345227041226137</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2551944706976773</v>
       </c>
       <c r="E49" t="n">
-        <v>1.239759799993923</v>
+        <v>1.461013404849695</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.794239698080137</v>
+        <v>-2.766595043406531</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5644318397920803</v>
+        <v>0.5664031034193301</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2009294647060739</v>
       </c>
       <c r="E50" t="n">
-        <v>1.086425741859462</v>
+        <v>1.358352776380816</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.728932441617338</v>
+        <v>-2.684988266778317</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5563113559018568</v>
+        <v>0.5397135845255119</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1442849332929608</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9851026694346904</v>
+        <v>1.256269742792816</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.659026383251859</v>
+        <v>-2.62656030562856</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4741989550326192</v>
+        <v>0.4560843109332019</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.08692745528292901</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9457231409404521</v>
+        <v>1.207872537092858</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.576369323218286</v>
+        <v>-2.546666186260655</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4225947864143195</v>
+        <v>0.3975374152514791</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.03017762200668507</v>
       </c>
       <c r="E53" t="n">
-        <v>0.910484973841333</v>
+        <v>1.163144004263539</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.48977217561292</v>
+        <v>-2.503212997566417</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3757473891539779</v>
+        <v>0.3712364158287493</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.02550447320592687</v>
       </c>
       <c r="E54" t="n">
-        <v>0.8913926268970885</v>
+        <v>1.106179242817301</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.436086957645556</v>
+        <v>-2.452813422284695</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3511962521528383</v>
+        <v>0.3292787526338969</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.08002075008222845</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9587144513551857</v>
+        <v>1.09138683664413</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.38748115907415</v>
+        <v>-2.413869987074331</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3426110087069327</v>
+        <v>0.3017816987640642</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1337578426929376</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9675137769586299</v>
+        <v>1.083731112309589</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.34404504815886</v>
+        <v>-2.386378422490589</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2756752640372171</v>
+        <v>0.2601332653523231</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1871433300308192</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9623995920840974</v>
+        <v>0.9855174154948791</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.29224021563791</v>
+        <v>-2.340315993141223</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2057814040852734</v>
+        <v>0.2166678782445494</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2402772242256278</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9391146504078869</v>
+        <v>0.9737148404791274</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.340399552273937</v>
+        <v>-2.369849572150717</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2044475075652254</v>
+        <v>0.2000316818655694</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2924258275244911</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9769608383207806</v>
+        <v>0.967419239253734</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.245525171164423</v>
+        <v>-2.294981199159216</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1815937798074756</v>
+        <v>0.1850477605998999</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3435920348001136</v>
       </c>
       <c r="E60" t="n">
-        <v>1.020369502805617</v>
+        <v>0.9653644164937698</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.245347684247489</v>
+        <v>-2.308832497728164</v>
       </c>
       <c r="G60" t="n">
-        <v>0.2053386016739543</v>
+        <v>0.1833753581042567</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3930449843988136</v>
       </c>
       <c r="E61" t="n">
-        <v>1.106427480532737</v>
+        <v>1.056555486636402</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.251162667979605</v>
+        <v>-2.31909441311445</v>
       </c>
       <c r="G61" t="n">
-        <v>0.2145892685781921</v>
+        <v>0.1958262787993916</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4412903740463064</v>
       </c>
       <c r="E62" t="n">
-        <v>1.154749665989456</v>
+        <v>1.088556804704019</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.290031082946729</v>
+        <v>-2.31159421855248</v>
       </c>
       <c r="G62" t="n">
-        <v>0.2115482040839262</v>
+        <v>0.169241666261974</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4877511750488143</v>
       </c>
       <c r="E63" t="n">
-        <v>1.226991110626203</v>
+        <v>1.165342768303216</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.269226688662852</v>
+        <v>-2.332854223581887</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1969698800682942</v>
+        <v>0.1471399706986546</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.532566375960111</v>
       </c>
       <c r="E64" t="n">
-        <v>1.330842914176771</v>
+        <v>1.232958574527506</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.383863719540357</v>
+        <v>-2.406128263924368</v>
       </c>
       <c r="G64" t="n">
-        <v>0.2386268523695098</v>
+        <v>0.1703035381601923</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.5756238750639302</v>
       </c>
       <c r="E65" t="n">
-        <v>1.434052471254724</v>
+        <v>1.295623654618631</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.462108003477658</v>
+        <v>-2.505567901299341</v>
       </c>
       <c r="G65" t="n">
-        <v>0.21539802339556</v>
+        <v>0.142611919594477</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6160647822073072</v>
       </c>
       <c r="E66" t="n">
-        <v>1.492013233166092</v>
+        <v>1.347078392671128</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.543731247964144</v>
+        <v>-2.592083319534023</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1975395459803768</v>
+        <v>0.1419952897902847</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.6536584630514624</v>
       </c>
       <c r="E67" t="n">
-        <v>1.611804703682794</v>
+        <v>1.405320937935153</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.559002441868562</v>
+        <v>-2.638464127476652</v>
       </c>
       <c r="G67" t="n">
-        <v>0.127464539587439</v>
+        <v>0.09397867459261711</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.6876396067319246</v>
       </c>
       <c r="E68" t="n">
-        <v>1.708582037303762</v>
+        <v>1.457113572042568</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.590147431306025</v>
+        <v>-2.708705642214342</v>
       </c>
       <c r="G68" t="n">
-        <v>0.130442172331323</v>
+        <v>0.07382506567083102</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.7183005694013873</v>
       </c>
       <c r="E69" t="n">
-        <v>1.718615232436268</v>
+        <v>1.441723443606185</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.660232806350467</v>
+        <v>-2.75200513089804</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1498144728661948</v>
+        <v>0.0968568902661912</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.7444850892579855</v>
       </c>
       <c r="E70" t="n">
-        <v>1.81864954247107</v>
+        <v>1.472118840531924</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.598992500960225</v>
+        <v>-2.765162339736849</v>
       </c>
       <c r="G70" t="n">
-        <v>0.121032316130454</v>
+        <v>0.08407905208831938</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.7663365995613096</v>
       </c>
       <c r="E71" t="n">
-        <v>1.863558611820707</v>
+        <v>1.472311575465776</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.627045192566575</v>
+        <v>-2.818005867170301</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1003035520104945</v>
+        <v>0.07639527140264735</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7824644883588573</v>
       </c>
       <c r="E72" t="n">
-        <v>1.898643078909285</v>
+        <v>1.473851625174565</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.639767527962863</v>
+        <v>-2.881391873501343</v>
       </c>
       <c r="G72" t="n">
-        <v>0.06197491684229301</v>
+        <v>0.02948505231260071</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7927508855045338</v>
       </c>
       <c r="E73" t="n">
-        <v>1.960556126805981</v>
+        <v>1.535404209951302</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.682996875768735</v>
+        <v>-2.930608812590851</v>
       </c>
       <c r="G73" t="n">
-        <v>0.007451057944400374</v>
+        <v>-0.02217766869066679</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.7959329723147646</v>
       </c>
       <c r="E74" t="n">
-        <v>1.989870744292522</v>
+        <v>1.535729297672009</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.650469806077761</v>
+        <v>-2.960384530109014</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.02059614437585907</v>
+        <v>-0.04770101925054276</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.7913985463648268</v>
       </c>
       <c r="E75" t="n">
-        <v>1.974815462307673</v>
+        <v>1.530709650502373</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.604489106099078</v>
+        <v>-2.952963015314344</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.02614398285155941</v>
+        <v>-0.04846890938256857</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.77842811338424</v>
       </c>
       <c r="E76" t="n">
-        <v>2.045404021910433</v>
+        <v>1.564722486961905</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.626917109224458</v>
+        <v>-3.02144612874097</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.04038441081227306</v>
+        <v>-0.06712577296361491</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.7566419381592522</v>
       </c>
       <c r="E77" t="n">
-        <v>1.95800726829785</v>
+        <v>1.489719931421519</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.69072701042584</v>
+        <v>-3.020349491364176</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008436079837348487</v>
+        <v>-0.06261662940041653</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.7261595331620165</v>
       </c>
       <c r="E78" t="n">
-        <v>2.028204258826138</v>
+        <v>1.540024359077669</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.739680463782992</v>
+        <v>-3.024693651384315</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.01537034401748171</v>
+        <v>-0.05560193169713711</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.6867771317103859</v>
       </c>
       <c r="E79" t="n">
-        <v>2.094337347885253</v>
+        <v>1.585587263392779</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.713435577062524</v>
+        <v>-2.991156553052646</v>
       </c>
       <c r="G79" t="n">
-        <v>0.05895458965103663</v>
+        <v>-0.02050709595705386</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.6387701595381345</v>
       </c>
       <c r="E80" t="n">
-        <v>2.167485744568324</v>
+        <v>1.640492322713639</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.65716002598101</v>
+        <v>-2.936537241568842</v>
       </c>
       <c r="G80" t="n">
-        <v>0.04151817734416315</v>
+        <v>-0.03449257707488682</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.5818978034746523</v>
       </c>
       <c r="E81" t="n">
-        <v>2.268814306279186</v>
+        <v>1.765343085243967</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.496513018932339</v>
+        <v>-2.818876833896697</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01656571253772335</v>
+        <v>-0.05318298629315431</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.5178221409093723</v>
       </c>
       <c r="E82" t="n">
-        <v>2.351836708798132</v>
+        <v>1.818796533354167</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.426009238303648</v>
+        <v>-2.707578508803712</v>
       </c>
       <c r="G82" t="n">
-        <v>0.07543342649541566</v>
+        <v>-0.0271186360930028</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4470536546402666</v>
       </c>
       <c r="E83" t="n">
-        <v>2.503423954114387</v>
+        <v>1.992799583382266</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.281207970436891</v>
+        <v>-2.574135793700035</v>
       </c>
       <c r="G83" t="n">
-        <v>0.08835825555638376</v>
+        <v>-0.001051236289467554</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3715260537927207</v>
       </c>
       <c r="E84" t="n">
-        <v>2.707166736340723</v>
+        <v>2.189775905620759</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.158344329471409</v>
+        <v>-2.456232027677868</v>
       </c>
       <c r="G84" t="n">
-        <v>0.06099965368017287</v>
+        <v>-0.03693469946458604</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2921825064204651</v>
       </c>
       <c r="E85" t="n">
-        <v>2.793036248578728</v>
+        <v>2.311497775079369</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.912907979703253</v>
+        <v>-2.247493385188289</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1089912621300938</v>
+        <v>0.004378277574943658</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.210464613397377</v>
       </c>
       <c r="E86" t="n">
-        <v>2.9513460395941</v>
+        <v>2.467876557232157</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.689015857999869</v>
+        <v>-2.049590593441816</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1029237712378041</v>
+        <v>0.003854965634293824</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1286807272986042</v>
       </c>
       <c r="E87" t="n">
-        <v>3.118369157397495</v>
+        <v>2.594165512718256</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.407171513274591</v>
+        <v>-1.794860272401374</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1118688678829911</v>
+        <v>0.02515339566633601</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.05071577107621596</v>
       </c>
       <c r="E88" t="n">
-        <v>3.264681808701234</v>
+        <v>2.698196023027112</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.142026796678676</v>
+        <v>-1.50532543786298</v>
       </c>
       <c r="G88" t="n">
-        <v>0.07235271715716123</v>
+        <v>0.01054579545822002</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.01791462512239954</v>
       </c>
       <c r="E89" t="n">
-        <v>3.337829595463628</v>
+        <v>2.740617225936293</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9210305783484914</v>
+        <v>-1.312717367511357</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02423119560309294</v>
+        <v>-0.02376834181562572</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.07225135121793749</v>
       </c>
       <c r="E90" t="n">
-        <v>3.424516401408476</v>
+        <v>2.817648987568219</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7220378583526701</v>
+        <v>-1.108662305898527</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01178454435269533</v>
+        <v>-0.03018348749366179</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1071798278883291</v>
       </c>
       <c r="E91" t="n">
-        <v>3.386167028937265</v>
+        <v>2.802813277027</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.4003522751808559</v>
+        <v>-0.7781688582337939</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01160896320397644</v>
+        <v>-0.03154239076145646</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1198497114044092</v>
       </c>
       <c r="E92" t="n">
-        <v>3.387073371062913</v>
+        <v>2.743752218214778</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2230739511186189</v>
+        <v>-0.585861478775808</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.004417998425116833</v>
+        <v>-0.03072509705461407</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1082588193560628</v>
       </c>
       <c r="E93" t="n">
-        <v>3.3447107205387</v>
+        <v>2.67487387618962</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09605789417965124</v>
+        <v>-0.2952611128151352</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1233970546003907</v>
+        <v>-0.1055312581370866</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.07466510865702997</v>
       </c>
       <c r="E94" t="n">
-        <v>3.225077219477275</v>
+        <v>2.592439437203059</v>
       </c>
       <c r="F94" t="n">
-        <v>0.27035187637056</v>
+        <v>-0.07531578781098784</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1501805012784282</v>
+        <v>-0.1390518886104831</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.02409541766403089</v>
       </c>
       <c r="E95" t="n">
-        <v>3.032592353102356</v>
+        <v>2.436427827297674</v>
       </c>
       <c r="F95" t="n">
-        <v>0.4948923437533273</v>
+        <v>0.1244850770815247</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1648271364098561</v>
+        <v>-0.1610889325820672</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.0333179210953455</v>
       </c>
       <c r="E96" t="n">
-        <v>2.795435676521055</v>
+        <v>2.25030931294665</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5904248292730524</v>
+        <v>0.2575185354111041</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1893520468218955</v>
+        <v>-0.1926639160966374</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.08561069988957071</v>
       </c>
       <c r="E97" t="n">
-        <v>2.590688964860792</v>
+        <v>2.08052447431894</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6888562677693609</v>
+        <v>0.3783743175087318</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2116952709732071</v>
+        <v>-0.2021018286486369</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1204591886954876</v>
       </c>
       <c r="E98" t="n">
-        <v>2.27101368023954</v>
+        <v>1.857162983604326</v>
       </c>
       <c r="F98" t="n">
-        <v>0.7175310784659942</v>
+        <v>0.4426733750928656</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.336806469632506</v>
+        <v>-0.31747808338636</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.131664979620185</v>
       </c>
       <c r="E99" t="n">
-        <v>1.962471277730969</v>
+        <v>1.661643761862585</v>
       </c>
       <c r="F99" t="n">
-        <v>0.7700720852437789</v>
+        <v>0.5011141445768342</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.352675385800137</v>
+        <v>-0.3123840258941603</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1190148492950498</v>
       </c>
       <c r="E100" t="n">
-        <v>1.728089740228872</v>
+        <v>1.479564142232987</v>
       </c>
       <c r="F100" t="n">
-        <v>0.7348589248924065</v>
+        <v>0.5115791635484774</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.4534416006470371</v>
+        <v>-0.3916145515657632</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.09254449463846616</v>
       </c>
       <c r="E101" t="n">
-        <v>1.424374249956086</v>
+        <v>1.317787562090979</v>
       </c>
       <c r="F101" t="n">
-        <v>0.7132750519836462</v>
+        <v>0.5245979203936647</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.4965483543968828</v>
+        <v>-0.4130496038293969</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.05963173324249847</v>
       </c>
       <c r="E102" t="n">
-        <v>1.115431129562892</v>
+        <v>1.097071907272099</v>
       </c>
       <c r="F102" t="n">
-        <v>0.6426840526981795</v>
+        <v>0.4848341418730751</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.5270724445854161</v>
+        <v>-0.4502639139211797</v>
       </c>
     </row>
   </sheetData>
